--- a/src/test/resources/testdata/OrangeHrmData.xlsx
+++ b/src/test/resources/testdata/OrangeHrmData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpmeloche/Development/eclipse/workspace/MavenExample2/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpmeloche/Development/eclipse/workspace/MavenExample/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07271535-5599-C54D-B4F5-3762F6236B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B27EA0-9023-4741-9787-82A351994BE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15400" yWindow="2520" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{5A4ED39C-36DF-6D4C-87BB-DC45341D7331}"/>
   </bookViews>
@@ -66,10 +66,10 @@
     <t>John Smith</t>
   </si>
   <si>
-    <t>jsmith</t>
-  </si>
-  <si>
     <t>Enabled</t>
+  </si>
+  <si>
+    <t>jsmith2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,10 +488,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
